--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/70_Sivas_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/70_Sivas_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9AD66D83-2FDB-4B95-9468-B8E2A80F99E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CD62E5DD-563B-4EFF-A5FB-48C4D65DE649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{2E21E13C-DB50-4D61-8678-E1FBA80025A4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="678" xr2:uid="{F5A5AA61-FAAC-4548-9094-8067DE0A1936}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -950,13 +950,13 @@
   <cellStyles count="9">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{C5D9EA07-355A-41ED-9DA1-ED03D109F217}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{08C0F974-83C4-4E82-9C3A-15BB1CFB450E}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{3681E5AB-C91B-4FD1-A27F-366BAEF1E287}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{85504AC4-CFDB-4F7E-94CC-24B944018A6C}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{1063B0C3-C0F8-4E1A-96CA-AAE5919FE392}"/>
-    <cellStyle name="Not 2" xfId="7" xr:uid="{FFF1B82C-8604-4544-AA5F-3413645D7553}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{66C43157-DA7C-45AD-B26F-D5350698C849}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{61A37155-70DF-4B7E-8A65-46C2B276E7A0}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F5744C52-904A-498E-A62A-69468B14F44B}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{C49F4675-E616-4055-A85A-587148906E35}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="5" xr:uid="{F43EA148-0EF6-4FA5-A91E-12A0ED8C54AC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="6" xr:uid="{256F1648-DFFB-424C-BC8F-4393CF6A763C}"/>
+    <cellStyle name="Not 2" xfId="7" xr:uid="{2879F794-60CE-4F15-99F6-2A1426EB51AF}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="8" xr:uid="{D91B4517-2591-46AE-BB6E-91DCC5066080}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6BB303A-B178-4836-88AF-3DA3A4765925}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A8584B3-B8BB-4DEB-B08D-06D7DCF33DD1}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2566,17 +2566,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{84435EB0-1294-48CF-9CE8-D7F2C0D08564}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BA712684-9AA2-4FF3-954B-3A859ADA1145}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{FDFBBEB3-9A66-4A2F-A837-8CC29E223ABC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D5F2CE9C-8461-4965-BD02-555569F75AC1}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{371C005B-BCF3-4B26-A5FE-2CD28F625B79}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1D910BA2-EE06-474E-AC63-22698841B1E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5521757F-3614-40AE-BCD0-F3F2E26ED172}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C8FA576-3950-47F2-94ED-DDC0AA100BC9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8BE6BE59-536A-4C29-9BB0-B8B3F7921653}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8306B36E-553A-4370-8A2A-28FC67900CF2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{563D0940-E033-4FD2-A575-E0D62ECC4ED8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CACB04FD-1F92-458E-92C1-451BEDE03C49}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{469CF5B9-6593-4B57-9BB8-6537EB5ACEE8}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{BD2A5394-F687-4EBD-AC1F-48933542E167}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E9A3FE04-AC21-4472-977B-22D72717CC80}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{39E429C2-91B9-4552-90B7-78E7BA5AC236}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{1F222A41-FC00-4C2F-A42D-30C40683CBA6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AF7B02A7-229B-4AB3-9580-96778A848E00}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{96513705-893B-405D-8F78-50DC38ABFD4F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{8492F907-F027-4277-9250-CD0C40DD9AA2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{CCF758CA-0383-4E4B-83B5-163252175AA1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{502386D9-19CA-4FA2-8D85-F5C1312F03FF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2589,7 +2589,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32D36218-810D-474E-BE2A-A157F0CD8E55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF7681D-F948-4CF3-896A-8EB58528F536}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3817,17 +3817,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F82D7A5C-3035-47AB-A051-182F85B73B07}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E726885E-A112-40DC-A1E8-CD902E85437F}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{AC41B28E-31D8-4EAB-8D7D-53EAA971A9C1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FCDB22CC-04DE-4521-8DDE-7FBDEE50C977}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0E6B08E4-441C-44A1-8A59-5D31F33169EF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{712BB68B-9D45-44E2-A612-AE62CDC8BCE9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{02D57097-CBD7-4CB9-AB94-C7C10F065FC9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9E948073-BB33-4A06-8680-E57F8190D1B8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4AA78F04-5345-447D-A657-C431D3496A1A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6DD2A61E-3F19-4B82-93C5-987EC1E7D774}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7EF0001D-9DA8-4ADA-93E4-8DBD0AB9F7C7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E39DC86-41C1-4255-AC48-8D9CE88CC322}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C784F10D-02B6-4E99-842B-15AF8CD6A904}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{6543192C-1938-4BEE-8FCD-74BF144120F1}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{71E8D118-785A-42E3-8C48-A95F3B5CFCB6}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7C170C3C-0887-456C-A307-F8ABB9423744}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{674FB46D-B9B6-44A0-9908-FAF4B2FB5CA0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1550D8A2-5314-4D8A-A130-A8D97642CBA5}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F438DF2E-056C-4F55-B934-9C0877C5047E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{CBEE95D1-F2C6-4B9C-9013-CF81CA1FB4A2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{531CA1B1-86AF-4EF5-8CD6-3728E2B3C8FD}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C19936B9-CDA8-477F-9817-BD5F1D58358D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3840,7 +3840,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9176C257-442C-4202-AF06-FBE78AB2AF83}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4740CB70-D290-40F8-B6E0-2F257FB70135}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5064,17 +5064,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BB0FBBCE-AFCB-46A6-AEF9-0213CF1C71F1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C1D3C4EF-0E7F-46EA-A185-6F767C8E8D8C}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{98C2E87C-51F6-49B3-861C-B361B178FE8D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1924187C-B29A-4FFC-9DA0-CFB718414218}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5621B54C-D499-4733-BFA2-80E96A5E7B58}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F9C827B3-777A-4864-80B2-0CC5EA5CD754}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4F08B3E0-6915-4353-8CA8-277BA0316E96}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5AF3E228-E903-4B1B-9B99-012207E6360F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9D5B3AAE-2A65-43C1-A15B-446C22AB4084}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5BB093E8-BE22-4BAE-9894-90A9E1E24A76}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B7CED281-4686-42D6-BB8A-1D45915CA61C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{39CD0F82-50C2-4C04-B137-E637CE3BEF66}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2AFF1436-5A0A-4C6F-B34E-625B1FE12FAC}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{65FFD48B-69D6-44A9-8C98-3D9DDE4CF659}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{92DA7C42-051C-4A4D-BA0B-9C1884815D9E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B5D16C89-810E-425A-A3BB-02A798246FAC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F6B17CF-9FD2-4198-B64F-A8D5043EEC69}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0C40A5B8-4504-4790-BAF1-A8E68040CA27}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3580005B-3F0E-4DD0-A454-CE6BA367C5F6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06E5723D-DB3A-4E54-B3DF-60212E4E5970}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3F6725ED-BF2B-4C68-806D-C945AF34E328}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{3EE3054C-07B4-410C-BB0F-E2BACD178917}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5087,7 +5087,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F18E8E03-FF4C-4F8F-96B1-91236B6DDC0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73355C43-7967-4603-BCE3-29EBC317B5E4}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6311,17 +6311,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C1418B74-8C05-4337-A305-C31A1D6F623D}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6DB80BD4-3B25-4A86-9461-62CC206D2E19}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{D8004EA5-D51F-415C-A2D7-E7EA384804D8}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7102DF92-E29D-45AD-B8B2-5B4E7A78C714}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E653852-3E3F-4FF8-9B77-2FCC648BF671}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5EADBC5F-363C-4ABD-9E4E-8381963280D8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A0652C16-9322-40F6-A8EB-891EEAB7044F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B2D8299-3331-4821-A870-ABB2CAD42A3F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73E5084E-6F6F-4841-8818-200BF802CD16}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{71ED22C8-3E63-4A13-961F-703AC9521D3C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{156764C1-0389-4306-9261-F21422A78B93}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{91F787F7-4864-4B3D-9925-29C9F7F584FB}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{66B0FDF5-9927-4DAA-BF09-2A255432F259}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{0E873415-C526-4B60-B383-EDA1FF988F4C}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{ED58F017-016C-41FC-93E6-DB3ABF0BB730}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{66C5696D-25C2-4CEE-8BB9-F9A8EDDF2200}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8685784F-435B-44B5-B95E-C3A8CBEDE3F6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A1594C75-812A-4CA6-B0B4-B67632DE20DC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA1328E6-576B-4F79-A4ED-C653BBFBE8D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2DE62389-4540-447D-9D49-EEFC64BF4117}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{84D0F7EC-EECD-4E01-8B38-FE7D683900B3}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6246B28-9F86-4966-8D5D-F6091ECD06E0}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6334,7 +6334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60080B42-7AAE-4033-A21A-5FD52620A87E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD572752-4449-4FA9-A59B-4E3366B593E9}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7574,17 +7574,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A237E7A0-58B3-45DB-8698-912E5CA83D72}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{EBCB87D8-AB15-4689-8AAC-4C6DD6F67899}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{7E1263B6-3282-40B7-88BB-8C3D2035926A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F682D667-18FD-4019-8006-906D456341B2}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FA5D3099-7745-4F6D-89BE-862BBEAC01F8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DE208727-4474-4CF8-89C8-62559BDCBD75}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{476D357E-A127-4D28-95DF-AFAC74E9EB25}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{27D54BB1-632E-4B48-8293-20DD0A9C5088}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2A5404B6-FE62-48A5-9F14-14FD7151847E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{08990465-FC15-4AFC-B196-43EE1D82F553}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8AEAC4FF-2975-44E1-9F98-5B784FE0F967}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{2C10C372-27E2-49DA-AFD5-A16DC69950F5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D1DC204-C338-4103-8FB1-5DEF4E974C50}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{CE30ED88-0B16-411A-8B4B-D027D8954F4A}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F9B2D15B-C31C-4E87-A3B4-3CEA669476DD}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D8F573BF-8DE6-441F-840A-A5CEE0571296}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A1ADB2C2-0F82-4656-8A6D-70FCAD891C64}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6037EC5F-09F0-41DA-9B46-9D41E49ABDEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{396AB8F4-BA3E-4626-83E7-9A6977F00966}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{50BA4CDA-62E3-4A63-8D56-400788AFB5FD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B56D7A38-C1CD-4EFD-89B2-059E46160EB0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D565F4B-605D-49A9-BE9A-9687B589E418}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7597,7 +7597,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5535A1-16C7-40E6-B950-1627B4572170}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F5CC2D2-FAD6-4F9C-BCA3-18AB9C239B57}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -8833,17 +8833,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3976946A-229F-4B1C-AA5C-C423D66295D6}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{1D8009E3-E714-4C09-81CE-4E55300E8E2B}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{A15DB3A6-AB29-4CB3-9ABD-41345A6B1F65}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9C132E85-13B6-4BBD-BB99-5DA288F4B3AE}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D3B54B92-49A8-422B-8741-325D9E7E6DD6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4EAA8491-5DC9-4551-A60E-0F96BF132DBB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{55C77CBA-C1EE-4FCB-8939-E618B2EA85A5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{04FE547B-E7B5-4EA1-80A5-EB352DFD88D2}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{83B02CC5-D79E-4A23-9E9C-F53273195A19}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{98A4D532-2D50-4DB3-B55B-4E2882BC36D4}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A955017E-E504-4E20-851A-8E2344A95412}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0943856D-AF5B-4BFE-87BF-B8B8C8B2D7A1}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{91DF2ADC-B7C0-41FB-94DB-EE393039360E}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{527B018C-6E54-4FD6-BB78-14F8B978BA34}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{4E0E11E0-E6FC-4992-91B5-E0F28173BB8F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7B59B3E-4D5A-48E7-8650-2C86BD21EC3F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11D48381-D939-45D5-9A8E-417CFC3E869C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4E3B9831-F0DC-4C7B-A91A-0EDEB7CBCBA0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A7CF057-1779-45BE-92D7-376908CAA1BA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1ECB6BFA-9B8D-42D9-AD49-DE96EE9070E2}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5AE2F200-06E3-440B-99E7-2D0803D185CE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A8FC39C5-B60E-4ECC-AD9E-21C56E445A57}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8856,7 +8856,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{367AF864-3912-4DDE-917B-25E5ABC8A667}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5548F53-AA6D-4952-9419-32CA6FDB11B2}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10092,17 +10092,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CEDF48FA-73B7-490E-AD81-FCCE8495B546}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC996D24-AF65-4D8C-808C-36A5AD3D8205}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{954A04E3-C087-4124-8754-BAE070B7C3A5}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9028590D-0339-492B-99C6-8B644913551D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{34C38F26-CA09-488F-BB9A-D5EA1753A4B5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0D6427FD-F4C8-4BF4-BC7B-40223298F3EE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D4A7D984-9753-4F1E-A1EE-29ABFC46BF41}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{840D04DE-3876-4117-B84D-BDD75C450E25}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{970D8FBF-9A55-47FC-BB24-3C95BFDF868E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C6F7182F-E511-43B5-8E00-4509763696BC}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{756ACDD1-1B8D-4972-8C0B-3D6116FB1215}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3077AA19-4B72-407C-8CB5-45FE58AD13EE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B213180C-529E-447E-8B11-B439DB61F460}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{300D7932-410D-410B-BE83-C34CCF211BDF}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{CA9C2F58-6ED7-472B-B0AE-632A723D4EF4}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3BA00C60-55E5-407A-96A5-149C30BBE0CB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3D886670-0E3F-468E-8A4F-A6B7B77206DE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9A17E024-462E-48DD-B77B-07FBDA75AC1C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7275DA26-9E3B-4148-A1B2-D41EEA510D0A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{88180086-986C-4A91-B5DF-85BBA96585BA}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F0E31B1-BC83-4ACA-8172-F79C00FC6002}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B553673C-F609-4EC1-9E84-718F30ACF505}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10115,7 +10115,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03835BD8-8F1D-4F03-A8A5-8318A81DD6B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C48A729-BCD7-49E4-BF3A-E2FF906E8AD1}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11351,17 +11351,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{68995BA1-8DB9-45F8-B55B-C875BCD7625B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{14159E2A-48A6-4C5B-AB72-F55A18B72F08}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{26CEF2DE-046F-45B1-8CCF-A726DE49F76D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F440B047-2E6C-433B-A576-50E47C40E86F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69784A98-DE14-427A-8CE0-6D7AECF121A3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CF8390D-7683-4731-985B-519E7A8E8D59}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{ED2C50B5-C137-4DF9-8543-65B832068BE6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EC5B454E-B5AE-4267-8513-1CB0B03D3CCC}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{97B0596C-8112-4C68-BE48-10C21A76BFD0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7A3F3662-4407-4F30-A86E-BBC7F5DE9D87}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{54573644-6DA6-4303-94D2-38F251E72529}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A495C79B-6D11-4986-A1E5-140E4D812C04}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2141B4E0-6D87-4596-9112-DF0538751D68}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{22601E24-1EF8-4776-8D6D-95A6CA22669E}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C97D0B02-7FCC-4281-A263-2E92AB858FF8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7FC47260-4554-43C9-BA28-7AE3BF0F6627}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E6E479A3-000B-4CA5-803D-9363E64AE2AC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{54DBC780-B500-438B-8564-5B960A879DCC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{49CE818D-EFAD-422F-B39B-0AD4525AB852}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{385858E1-DCF9-4CA3-A369-C40B131CA048}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{2442C0A9-BA15-4A07-A846-A9CAE91C0CF1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{675526E5-2437-41E4-8633-4F32D42397BA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11374,7 +11374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCDE7CF1-3014-450E-A6D3-50ACA6C3F27B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F8A6B8E-46E5-465F-8253-B58AE68B821E}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -12602,17 +12602,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{CE12CD5B-2AD9-4456-AB8B-32812B55CF1C}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C484724A-1B09-4FB2-9E7D-4C01B4B68F81}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{57791F59-EB97-46DA-9B54-0403C57A2F4F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EF160165-1F6B-4E90-97A2-A644ABD1777F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E1690EBE-FDCF-4BDD-86D8-9E453C9E3CD4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E56F1AEA-73C7-4A31-9F56-1E45B65EC44D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{96198D06-CCF0-4C28-93E9-6A2AD4A9EF8A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{62A91451-68B5-4F5C-BEC1-CBA719228B75}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{268E49DA-A4DA-474A-B84F-FBC5E7349382}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{69FD6015-59BB-4F87-B9AA-C1A8638E6115}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2B0BB57E-E0FF-4D11-8A07-76B180DA90D6}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DDD6B5B5-8F46-472C-A417-05F2603CBA0E}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{74CF2576-C3D3-4D2F-8BA4-9F632DC375F9}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{F3790661-47A0-4F1B-A83C-64A5596B82AA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{76C987BD-5AEB-4190-89DB-E7177A10764B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E8337D03-F99B-4B9C-9448-BBE90E50B3B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2C841CB-44F3-4156-BC3A-26FFF3AA483C}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FCD91CE6-BBFF-46E8-9FDE-406DBE8C1215}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8588FA68-6713-467F-B0A1-BAD759F6A933}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B723440-81F0-4075-BEA6-6BA55DFBFF86}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{055BE1DD-20A8-4CB9-995F-8269F22C2397}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C12E266A-668D-4EDE-ABF2-3DE5801E3F45}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12625,7 +12625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D83B99E9-8EE1-4BE4-9B16-85C3E772F424}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A98389-8D01-4F5F-AF2C-FB9C1C553353}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13853,17 +13853,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FEC8E142-7E45-456F-97FE-11F55B1341C7}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{ABD4924E-8DBA-4453-B48F-7A7D4F6A6528}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{01BE17C1-1559-486D-A4D4-2F5DBD4F8097}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D10B1D76-79C4-4D96-86F8-67E996F77571}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4CD9E3C-62EC-45F4-9AC2-1EF0679CDCC5}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ABECC840-D1CD-4223-8FBE-AE2112FC0CF3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{626E6C1A-5DEE-4272-BEC6-0D0FF7F4E754}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{16B4F031-7446-4357-AEFA-6C6E0E16B86C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{178D0BAE-F2D2-4AD6-A66C-6FA1636030F2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B71BF109-FB25-4D7E-8449-4C7D4B3DCDBD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D718E94-2165-46A5-9760-8D59ABD213A9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B038EB26-27F0-4DAD-82C3-5FCBBF5EEAC5}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{A9DAD27B-A67E-419E-8022-832FB4F249A1}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{16C9ECE4-5CFA-4923-9B13-0093E2B13B49}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C8076DF1-27BA-4DF9-B403-AD8DB4F961A8}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ECAAB6B6-E5E0-41A0-8557-999E36210E25}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BD12BFF-7F37-48F5-BF72-0CB6D020CFB1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4C6D44B-A2EC-4E69-A18A-E62C4C5965ED}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1580EAA3-0C9D-464C-B727-28599D3372E0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A2DA1D60-2A8A-4B54-BDDB-EAB6F6D9B0BC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F04B084-E075-4A2A-8E5E-12BF38364F39}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{902D1C32-CC84-455F-B33C-DFA111EC2DBA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13876,7 +13876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCC17EC-2036-4E2F-B196-5AE9A5C1CF9D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C942629-63CB-4A8C-BEEE-8949DC6EF579}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15104,17 +15104,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{60880E4E-5E04-4AA7-93AB-F1A25EAB57F3}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{79FE32F6-48D2-4E7A-B8A1-39E715132F87}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{88055E48-41AB-41C8-95FD-84E5ECF335FF}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E8BF2A43-77DE-4B52-A952-EB8E41AFC2F4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{A4F02E5E-B669-4928-8809-69B6E90665E2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{246E88AD-F6E3-415C-A141-BC130DA25240}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3AE31FEE-E5F4-4C6E-BAE4-477FAD65F261}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{70AD9555-F138-4D90-92DE-F74F99353AFA}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{729C65B0-49E1-47B0-8AE1-F12472270F89}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1BD86C43-D860-4B82-AD39-996D2ECB448A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F298DF2F-59CB-43E2-9716-9F1276238B01}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A0989210-2613-4DB1-B7B3-FE6CE25DAAE6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F62A3D59-542F-4844-9BA4-42234C8F9E75}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{ED5142DA-049D-4EC1-9A9C-2987A93FB5DC}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7FAB28CC-9802-46A8-A7B8-021071B07DFC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{09F3D99F-12CF-470A-A492-78CC8AD9C7F3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8775D983-0780-4953-8308-66D717A59BEC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0441C60E-2A26-4053-8414-0E244784BB0F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAA702CE-F873-429F-ABB5-0C6DBC091D6A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D1897815-84F7-42B4-9E27-8C217599799C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D0A8BCBA-813A-4E1A-A81C-F189D017F634}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{D954E1D7-4F62-4561-9938-F8917736ACC7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15127,7 +15127,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28AE283-5E0F-4ABB-808B-A3346B66451F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07B097BD-2945-45C2-9D4C-C91EA65F4CA8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16355,17 +16355,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4CBF852E-C165-4044-B969-3CA928EC1801}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{F708B508-E49E-42E1-85C2-C02BD1CC7DC0}"/>
-    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{3CA75235-2844-45E8-8F28-F1A3D31AD44A}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C18E7B2B-6560-49BF-9C65-28DCF3EE5AAA}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85A57612-A209-4858-9D56-EC596AB6A8D6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FCF534D-9F8D-47F6-A4BE-65A3A83362A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5AE06C16-2E7C-47DB-B36E-63953F61AEE7}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FCE8348-993E-412C-A2FC-4C06E2C25170}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{2E1C90D8-004E-483A-810A-363E2515CE78}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EF3F309B-686C-438C-AC1C-A88998EAB73C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5E89488A-981B-4EFD-ADFD-5782B1458521}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4DD98247-7B0F-472B-9FDB-500FE0D7F14A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80AD0AA0-9688-4FFB-87D2-2E28BB30D87A}"/>
+    <hyperlink ref="C4" location="'OCAK '!A1" display="OCAK" xr:uid="{A9213E0B-CC1D-4E70-9C42-21A944DE6440}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{97638010-9CAB-4643-93C4-5EBE65EE8D84}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{FE0DAB73-7724-48E7-B7EC-4625BECA2B2F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{50157BC0-49B0-47B2-A6B1-DD4EFA176681}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{68328B78-68BC-4670-9155-D71A5C7AF334}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF609B63-A0B2-4588-907E-26E52BFF952D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F857708E-E40C-4E0C-99A3-3DE43FA13FAF}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{74784BA7-1C0C-47A4-B60E-2ABF870ED570}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F7B713E7-4894-4D11-B303-672079D4EB3D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
